--- a/ERM-sheets/Excel-sheet_tables.xlsx
+++ b/ERM-sheets/Excel-sheet_tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CodeAcademyExample\ERM-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F3CC8-5D53-4BDA-82DF-2EC6D2F0DF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1F62C-AA58-4D33-B88C-8ED6CD71BCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{23C6EE17-2C2F-41B0-99D2-02BBA4A776C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>Calendar</t>
   </si>
@@ -99,9 +99,6 @@
     <t>month_name</t>
   </si>
   <si>
-    <t>event</t>
-  </si>
-  <si>
     <t>December</t>
   </si>
   <si>
@@ -148,6 +145,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>id_event</t>
+  </si>
+  <si>
+    <t>endttime</t>
+  </si>
+  <si>
+    <t>team_a</t>
+  </si>
+  <si>
+    <t>team_b</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -226,9 +238,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B5ACBE22-FC97-49B2-BE60-9C82C5D5788B}" name="Tabelle5" displayName="Tabelle5" ref="A3:I10" totalsRowShown="0">
-  <autoFilter ref="A3:I10" xr:uid="{CC087F98-27A7-41D9-9ABA-B9AF54514BB0}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B5ACBE22-FC97-49B2-BE60-9C82C5D5788B}" name="Tabelle5" displayName="Tabelle5" ref="A3:O10" totalsRowShown="0">
+  <autoFilter ref="A3:O10" xr:uid="{CC087F98-27A7-41D9-9ABA-B9AF54514BB0}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{CB76BF9C-C819-4975-BCF3-B016E29F556F}" name="id"/>
     <tableColumn id="2" xr3:uid="{20C0575E-A4C2-442E-AACE-A2BEE392CFEA}" name="db_date"/>
     <tableColumn id="3" xr3:uid="{7F7B2788-BF05-4B90-BCFF-9726309C4E7F}" name="year"/>
@@ -237,7 +249,13 @@
     <tableColumn id="6" xr3:uid="{C4822C4A-D319-4482-8EFD-D94AA4047B47}" name="week"/>
     <tableColumn id="8" xr3:uid="{BEA22132-256C-4830-AF51-525B702A2640}" name="day_name"/>
     <tableColumn id="9" xr3:uid="{9C214E57-B832-46CA-A56F-2198D16E3354}" name="month_name"/>
-    <tableColumn id="7" xr3:uid="{A24F9CA5-1BC5-4AE1-9DFD-106AA1B62A1F}" name="event"/>
+    <tableColumn id="7" xr3:uid="{A24F9CA5-1BC5-4AE1-9DFD-106AA1B62A1F}" name="id_event"/>
+    <tableColumn id="10" xr3:uid="{107F4EBF-D1A9-480F-A89A-10FEB17BD4B6}" name="starttime"/>
+    <tableColumn id="11" xr3:uid="{7085C1F2-9FE1-44E9-9780-36158765AF36}" name="endttime"/>
+    <tableColumn id="12" xr3:uid="{277DB915-BAB9-4561-98FC-CF69B1EC9857}" name="category"/>
+    <tableColumn id="13" xr3:uid="{87B67517-2FD1-43BA-BC8B-12B335FDF9F6}" name="team_a"/>
+    <tableColumn id="14" xr3:uid="{3446737B-2EA9-4CBF-9A4A-635CDD79C66C}" name="team_b"/>
+    <tableColumn id="15" xr3:uid="{002302B1-B737-4AD1-B51D-DB63C1D20A36}" name="location"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8749B7-3B08-423A-B7FD-004B14429D1E}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,41 +597,59 @@
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -639,10 +675,28 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20211231</v>
       </c>
@@ -665,11 +719,31 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20211230</v>
       </c>
@@ -692,11 +766,31 @@
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20211229</v>
       </c>
@@ -719,11 +813,31 @@
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20211228</v>
       </c>
@@ -746,11 +860,31 @@
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>20211227</v>
       </c>
@@ -773,11 +907,31 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20211226</v>
       </c>
@@ -800,11 +954,31 @@
         <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20211225</v>
       </c>
@@ -827,40 +1001,60 @@
         <v>6</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="K12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -871,22 +1065,22 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -917,7 +1111,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>43831</v>
@@ -943,7 +1137,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>43831</v>
